--- a/MyVitarak/uploads/Area_Master.xlsx
+++ b/MyVitarak/uploads/Area_Master.xlsx
@@ -15,15 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Area</t>
-  </si>
-  <si>
-    <t>new one</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
@@ -906,13 +900,10 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
@@ -924,18 +915,14 @@
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="A2" s="1"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="A3" s="1"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
